--- a/APF/RA003/RA003_APF_需求明細表1004.xlsx
+++ b/APF/RA003/RA003_APF_需求明細表1004.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA003\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8055" yWindow="60" windowWidth="7305" windowHeight="7965" tabRatio="598"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <definedName name="作業種類">[1]Link!$A$2:$A$6</definedName>
     <definedName name="業務別">[1]Link!$E$2:$E$20</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -307,11 +312,6 @@
   </si>
   <si>
     <t>職稱角色資料轉入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能APF0602
-AP Framework提供SSIS sync程式，掛於各模組中，異常也由各模組自行對應</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1301,10 +1301,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>功能執行細項紀錄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>APF功能需求人員/組織主檔資料時呼叫API執行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1339,10 +1335,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>功能APF0506</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>功能APF0505
 APF 與CMD DB置於相同網段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1411,6 +1403,19 @@
   <si>
     <t>線上可查詢 - 6個月
 其餘媒體備份保存5年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能APF0506</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能執行細項紀錄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能APF0601
+AP Framework提供SSIS sync程式，掛於各模組中，異常也由各模組自行對應</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1777,6 +1782,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2036,7 +2044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2071,7 +2079,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2285,10 +2293,10 @@
   </sheetPr>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScale="90" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScale="90" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2342,7 +2350,7 @@
         <v>39</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K1" s="42" t="s">
         <v>52</v>
@@ -2420,49 +2428,49 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q3" s="12"/>
     </row>
@@ -2472,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>45</v>
@@ -2481,37 +2489,37 @@
         <v>54</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="G4" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>132</v>
-      </c>
       <c r="O4" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P4" s="47">
         <v>0.1</v>
@@ -2533,10 +2541,10 @@
         <v>57</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>14</v>
@@ -2545,25 +2553,25 @@
         <v>15</v>
       </c>
       <c r="I5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>100</v>
-      </c>
       <c r="L5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P5" s="25">
         <v>0.05</v>
@@ -2576,7 +2584,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>46</v>
@@ -2585,37 +2593,37 @@
         <v>57</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="K6" s="45" t="s">
+      <c r="L6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>135</v>
-      </c>
       <c r="N6" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P6" s="25">
         <v>0.1</v>
@@ -2637,10 +2645,10 @@
         <v>57</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>14</v>
@@ -2652,22 +2660,22 @@
         <v>28</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>58</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P7" s="25">
         <v>0.1</v>
@@ -2689,37 +2697,37 @@
         <v>57</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="M8" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P8" s="25">
         <v>0.1</v>
@@ -2732,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>47</v>
@@ -2741,37 +2749,37 @@
         <v>59</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P9" s="25">
         <v>0.1</v>
@@ -2784,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>47</v>
@@ -2793,37 +2801,37 @@
         <v>60</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="40" t="s">
-        <v>129</v>
-      </c>
       <c r="K10" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>61</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P10" s="24">
         <v>0.05</v>
@@ -2836,7 +2844,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>47</v>
@@ -2845,37 +2853,37 @@
         <v>60</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J11" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="M11" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P11" s="24">
         <v>0.1</v>
@@ -2897,10 +2905,10 @@
         <v>62</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>21</v>
@@ -2909,25 +2917,25 @@
         <v>22</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P12" s="24">
         <v>0.1</v>
@@ -2952,7 +2960,7 @@
         <v>66</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>29</v>
@@ -2961,25 +2969,25 @@
         <v>30</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K13" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M13" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P13" s="24">
         <v>0.01</v>
@@ -2992,7 +3000,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>49</v>
@@ -3001,40 +3009,40 @@
         <v>62</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K14" s="44" t="s">
         <v>56</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="12"/>
     </row>
@@ -3044,7 +3052,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>50</v>
@@ -3053,40 +3061,40 @@
         <v>64</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>63</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P15" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="12"/>
     </row>
@@ -3105,37 +3113,37 @@
         <v>65</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="44" t="s">
-        <v>149</v>
-      </c>
       <c r="L16" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P16" s="24">
         <v>0.1</v>
@@ -3151,44 +3159,44 @@
         <v>51</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="E17" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K17" s="44"/>
       <c r="L17" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M17" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="14"/>
     </row>
@@ -3207,38 +3215,38 @@
         <v>62</v>
       </c>
       <c r="E18" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>204</v>
-      </c>
       <c r="G18" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>192</v>
-      </c>
       <c r="I18" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K18" s="44"/>
       <c r="L18" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q18" s="12"/>
     </row>
@@ -3251,41 +3259,41 @@
         <v>51</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>201</v>
-      </c>
       <c r="E19" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="I19" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="J19" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="K19" s="44"/>
       <c r="L19" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="M19" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="M19" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="N19" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P19" s="24">
         <v>0.1</v>
@@ -3310,34 +3318,34 @@
         <v>17</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J20" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="M20" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="K20" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>189</v>
       </c>
       <c r="N20" s="26" t="s">
         <v>25</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P20" s="24">
         <v>0.1</v>
